--- a/tests/test_data/test_objective_cost_functions_xe.xlsx
+++ b/tests/test_data/test_objective_cost_functions_xe.xlsx
@@ -6132,7 +6132,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6256,7 +6256,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6345,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G101" sqref="G3:G101"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9391,7 +9391,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,19 +9430,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>H2/m</f>
+        <f t="shared" ref="A2:D6" si="0">H2/m</f>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="B2">
-        <f>I2/m</f>
+        <f t="shared" si="0"/>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="C2">
-        <f>J2/m</f>
+        <f t="shared" si="0"/>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="D2">
-        <f>K2/m</f>
+        <f t="shared" si="0"/>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="H2">
@@ -9454,7 +9454,7 @@
         <v>6.9351769129245158</v>
       </c>
       <c r="J2">
-        <f>H2+alpha*theta!D2</f>
+        <f>H2+alpha*theta!C2</f>
         <v>6.9351769129245158</v>
       </c>
       <c r="K2">
@@ -9472,19 +9472,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>H3/m</f>
+        <f t="shared" si="0"/>
         <v>-0.23998981297801758</v>
       </c>
       <c r="B3">
-        <f>I3/m</f>
+        <f t="shared" si="0"/>
         <v>-0.23898981297801758</v>
       </c>
       <c r="C3">
-        <f>J3/m</f>
-        <v>-0.23960131593563416</v>
+        <f t="shared" si="0"/>
+        <v>-0.23936651766888761</v>
       </c>
       <c r="D3">
-        <f>K3/m</f>
+        <f t="shared" si="0"/>
         <v>-0.2391781653234526</v>
       </c>
       <c r="H3">
@@ -9495,8 +9495,8 @@
         <v>-23.898981297801758</v>
       </c>
       <c r="J3">
-        <f>H3+alpha*theta!D3</f>
-        <v>-23.960131593563418</v>
+        <f>H3+alpha*theta!C3</f>
+        <v>-23.936651766888762</v>
       </c>
       <c r="K3">
         <f>H3+alpha*(L3+M3)</f>
@@ -9513,19 +9513,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>H4/m</f>
+        <f t="shared" si="0"/>
         <v>-0.38502571521596829</v>
       </c>
       <c r="B4">
-        <f>I4/m</f>
+        <f t="shared" si="0"/>
         <v>-0.38402571521596829</v>
       </c>
       <c r="C4">
-        <f>J4/m</f>
-        <v>-0.38454707125120113</v>
+        <f t="shared" si="0"/>
+        <v>-0.38433387421923049</v>
       </c>
       <c r="D4">
-        <f>K4/m</f>
+        <f t="shared" si="0"/>
         <v>-0.38417979471759933</v>
       </c>
       <c r="H4">
@@ -9536,8 +9536,8 @@
         <v>-38.402571521596826</v>
       </c>
       <c r="J4">
-        <f>H4+alpha*theta!D4</f>
-        <v>-38.454707125120116</v>
+        <f>H4+alpha*theta!C4</f>
+        <v>-38.433387421923051</v>
       </c>
       <c r="K4">
         <f>H4+alpha*(L4+M4)</f>
@@ -9554,19 +9554,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>H5/m</f>
+        <f t="shared" si="0"/>
         <v>0.1231413900373089</v>
       </c>
       <c r="B5">
-        <f>I5/m</f>
+        <f t="shared" si="0"/>
         <v>0.1241413900373089</v>
       </c>
       <c r="C5">
-        <f>J5/m</f>
-        <v>0.12316370953917997</v>
+        <f t="shared" si="0"/>
+        <v>0.1232907871653639</v>
       </c>
       <c r="D5">
-        <f>K5/m</f>
+        <f t="shared" si="0"/>
         <v>0.12371608860133639</v>
       </c>
       <c r="H5">
@@ -9577,8 +9577,8 @@
         <v>12.41413900373089</v>
       </c>
       <c r="J5">
-        <f>H5+alpha*theta!D5</f>
-        <v>12.316370953917998</v>
+        <f>H5+alpha*theta!C5</f>
+        <v>12.32907871653639</v>
       </c>
       <c r="K5">
         <f>H5+alpha*(L5+M5)</f>
@@ -9595,19 +9595,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>H6/m</f>
+        <f t="shared" si="0"/>
         <v>-0.11320895895680309</v>
       </c>
       <c r="B6">
-        <f>I6/m</f>
+        <f t="shared" si="0"/>
         <v>-0.11220895895680309</v>
       </c>
       <c r="C6">
-        <f>J6/m</f>
-        <v>-0.11239672230143932</v>
+        <f t="shared" si="0"/>
+        <v>-0.11230771722709693</v>
       </c>
       <c r="D6">
-        <f>K6/m</f>
+        <f t="shared" si="0"/>
         <v>-0.11225833809195</v>
       </c>
       <c r="H6">
@@ -9618,8 +9618,8 @@
         <v>-11.220895895680309</v>
       </c>
       <c r="J6">
-        <f>H6+alpha*theta!D6</f>
-        <v>-11.239672230143933</v>
+        <f>H6+alpha*theta!C6</f>
+        <v>-11.230771722709692</v>
       </c>
       <c r="K6">
         <f>H6+alpha*(L6+M6)</f>

--- a/tests/test_data/test_objective_cost_functions_xe.xlsx
+++ b/tests/test_data/test_objective_cost_functions_xe.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>alpha</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>weights^2</t>
-  </si>
-  <si>
-    <t>l1_cont</t>
-  </si>
-  <si>
-    <t>l2_cont</t>
   </si>
   <si>
     <t>gradient</t>
@@ -4096,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -5319,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,14 +6126,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -6148,7 +6142,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6253,15 +6247,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6274,63 +6268,35 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>H2/m</f>
+        <f>-AVERAGE(worksheet!G2:G101)</f>
         <v>0.956563500877883</v>
       </c>
       <c r="B2">
-        <f>I2/m</f>
-        <v>0.95892927604151179</v>
+        <f>A2+alpha*SUM(weights)</f>
+        <v>1.1931410172407748</v>
       </c>
       <c r="C2">
-        <f>J2/m</f>
-        <v>0.95826519804226828</v>
+        <f>A2+alpha*SUM(weights_2)</f>
+        <v>1.1267332173164235</v>
       </c>
       <c r="D2">
-        <f>K2/m</f>
-        <v>0.95859723704189004</v>
-      </c>
-      <c r="H2">
-        <f>-SUM(worksheet!G2:G101)</f>
-        <v>95.656350087788297</v>
-      </c>
-      <c r="I2">
-        <f>H2+alpha*SUM(weights)</f>
-        <v>95.892927604151183</v>
-      </c>
-      <c r="J2">
-        <f>H2+alpha*SUM(weights_2)</f>
-        <v>95.826519804226834</v>
-      </c>
-      <c r="K2">
-        <f>H2+alpha*(L2+M2)</f>
-        <v>95.859723704189008</v>
-      </c>
-      <c r="L2">
+        <f>A2+alpha*(E2+F2)</f>
+        <v>1.1599371172785991</v>
+      </c>
+      <c r="E2">
         <f>ratio*SUM(weights)</f>
         <v>1.1828875818144584</v>
       </c>
-      <c r="M2">
+      <c r="F2">
         <f>(1-ratio)*SUM(weights_2)</f>
         <v>0.85084858219270232</v>
       </c>
@@ -6360,25 +6326,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9388,248 +9354,156 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:D6" si="0">H2/m</f>
+        <f t="array" ref="A2:A6">1/m*MMULT(data,error)</f>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="B2">
-        <f t="shared" si="0"/>
+        <f>A2+alpha*theta!E2</f>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" si="0"/>
+        <f>A2+alpha*theta!C2</f>
         <v>6.9351769129245164E-2</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
+        <f>A2+alpha*(E2+F2)</f>
         <v>6.9351769129245164E-2</v>
       </c>
-      <c r="H2">
-        <f t="array" ref="H2:H6">MMULT(data,error)</f>
-        <v>6.9351769129245158</v>
-      </c>
-      <c r="I2">
-        <f>H2+alpha*(SIGN(theta!C2))</f>
-        <v>6.9351769129245158</v>
-      </c>
-      <c r="J2">
-        <f>H2+alpha*theta!C2</f>
-        <v>6.9351769129245158</v>
-      </c>
-      <c r="K2">
-        <f>H2+alpha*(L2+M2)</f>
-        <v>6.9351769129245158</v>
-      </c>
-      <c r="L2">
-        <f>ratio*SIGN(theta!C2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="E2">
+        <f>ratio*theta!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
         <f>(1-ratio)*theta!C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" si="0"/>
         <v>-0.23998981297801758</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>-0.23898981297801758</v>
+        <f>A3+alpha*theta!E3</f>
+        <v>-0.13998981297801757</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>-0.23936651766888761</v>
+        <f>A3+alpha*theta!C3</f>
+        <v>-0.17766028206502038</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-0.2391781653234526</v>
-      </c>
-      <c r="H3">
-        <v>-23.998981297801759</v>
-      </c>
-      <c r="I3">
-        <f>H3+alpha*(SIGN(theta!C3))</f>
-        <v>-23.898981297801758</v>
-      </c>
-      <c r="J3">
-        <f>H3+alpha*theta!C3</f>
-        <v>-23.936651766888762</v>
-      </c>
-      <c r="K3">
-        <f>H3+alpha*(L3+M3)</f>
-        <v>-23.91781653234526</v>
-      </c>
-      <c r="L3">
-        <f>ratio*SIGN(theta!C3)</f>
+        <f>A3+alpha*(E3+F3)</f>
+        <v>-0.15882504752151899</v>
+      </c>
+      <c r="E3">
+        <f>ratio*theta!E3</f>
         <v>0.5</v>
       </c>
-      <c r="M3">
+      <c r="F3">
         <f>(1-ratio)*theta!C3</f>
         <v>0.31164765456498594</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
         <v>-0.38502571521596829</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>-0.38402571521596829</v>
+        <f>A4+alpha*theta!E4</f>
+        <v>-0.28502571521596831</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-0.38433387421923049</v>
+        <f>A4+alpha*theta!C4</f>
+        <v>-0.3158416155421897</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-0.38417979471759933</v>
-      </c>
-      <c r="H4">
-        <v>-38.502571521596828</v>
-      </c>
-      <c r="I4">
-        <f>H4+alpha*(SIGN(theta!C4))</f>
-        <v>-38.402571521596826</v>
-      </c>
-      <c r="J4">
-        <f>H4+alpha*theta!C4</f>
-        <v>-38.433387421923051</v>
-      </c>
-      <c r="K4">
-        <f>H4+alpha*(L4+M4)</f>
-        <v>-38.417979471759935</v>
-      </c>
-      <c r="L4">
-        <f>ratio*SIGN(theta!C4)</f>
+        <f>A4+alpha*(E4+F4)</f>
+        <v>-0.30043366537907901</v>
+      </c>
+      <c r="E4">
+        <f>ratio*theta!E4</f>
         <v>0.5</v>
       </c>
-      <c r="M4">
+      <c r="F4">
         <f>(1-ratio)*theta!C4</f>
         <v>0.34592049836889283</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>0.1231413900373089</v>
+        <v>0.12314139003730891</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.1241413900373089</v>
+        <f>A5+alpha*theta!E5</f>
+        <v>0.22314139003730893</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.1232907871653639</v>
+        <f>A5+alpha*theta!C5</f>
+        <v>0.13808110284280806</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.12371608860133639</v>
-      </c>
-      <c r="H5">
-        <v>12.31413900373089</v>
-      </c>
-      <c r="I5">
-        <f>H5+alpha*(SIGN(theta!C5))</f>
-        <v>12.41413900373089</v>
-      </c>
-      <c r="J5">
-        <f>H5+alpha*theta!C5</f>
-        <v>12.32907871653639</v>
-      </c>
-      <c r="K5">
-        <f>H5+alpha*(L5+M5)</f>
-        <v>12.371608860133639</v>
-      </c>
-      <c r="L5">
-        <f>ratio*SIGN(theta!C5)</f>
+        <f>A5+alpha*(E5+F5)</f>
+        <v>0.18061124644005849</v>
+      </c>
+      <c r="E5">
+        <f>ratio*theta!E5</f>
         <v>0.5</v>
       </c>
-      <c r="M5">
+      <c r="F5">
         <f>(1-ratio)*theta!C5</f>
         <v>7.4698564027495695E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>-0.11320895895680309</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>-0.11220895895680309</v>
+        <f>A6+alpha*theta!E6</f>
+        <v>-1.3208958956803088E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-0.11230771722709693</v>
+        <f>A6+alpha*theta!C6</f>
+        <v>-2.308478598618631E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-0.11225833809195</v>
-      </c>
-      <c r="H6">
-        <v>-11.320895895680309</v>
-      </c>
-      <c r="I6">
-        <f>H6+alpha*(SIGN(theta!C6))</f>
-        <v>-11.220895895680309</v>
-      </c>
-      <c r="J6">
-        <f>H6+alpha*theta!C6</f>
-        <v>-11.230771722709692</v>
-      </c>
-      <c r="K6">
-        <f>H6+alpha*(L6+M6)</f>
-        <v>-11.225833809195001</v>
-      </c>
-      <c r="L6">
-        <f>ratio*SIGN(theta!C6)</f>
+        <f>A6+alpha*(E6+F6)</f>
+        <v>-1.8146872471494699E-2</v>
+      </c>
+      <c r="E6">
+        <f>ratio*theta!E6</f>
         <v>0.5</v>
       </c>
-      <c r="M6">
+      <c r="F6">
         <f>(1-ratio)*theta!C6</f>
         <v>0.45062086485308389</v>
       </c>
@@ -9651,7 +9525,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
